--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07529266666666666</v>
+        <v>0.9568136666666667</v>
       </c>
       <c r="H2">
-        <v>0.225878</v>
+        <v>2.870441</v>
       </c>
       <c r="I2">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263423</v>
       </c>
       <c r="J2">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263421</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N2">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q2">
-        <v>9.390695491161333</v>
+        <v>87.55926664062588</v>
       </c>
       <c r="R2">
-        <v>84.516259420452</v>
+        <v>788.0333997656329</v>
       </c>
       <c r="S2">
-        <v>0.008435344608773458</v>
+        <v>0.09653692417098364</v>
       </c>
       <c r="T2">
-        <v>0.008435344608773458</v>
+        <v>0.09653692417098364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07529266666666666</v>
+        <v>0.9568136666666667</v>
       </c>
       <c r="H3">
-        <v>0.225878</v>
+        <v>2.870441</v>
       </c>
       <c r="I3">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263423</v>
       </c>
       <c r="J3">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263421</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q3">
-        <v>0.010142825712</v>
+        <v>0.128894282664</v>
       </c>
       <c r="R3">
-        <v>0.091285431408</v>
+        <v>1.160048543976</v>
       </c>
       <c r="S3">
-        <v>9.110957784540742E-06</v>
+        <v>0.0001421101165988358</v>
       </c>
       <c r="T3">
-        <v>9.110957784540742E-06</v>
+        <v>0.0001421101165988358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07529266666666666</v>
+        <v>0.9568136666666667</v>
       </c>
       <c r="H4">
-        <v>0.225878</v>
+        <v>2.870441</v>
       </c>
       <c r="I4">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263423</v>
       </c>
       <c r="J4">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263421</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q4">
-        <v>0.2135735469255556</v>
+        <v>2.714076915903889</v>
       </c>
       <c r="R4">
-        <v>1.92216192233</v>
+        <v>24.426692243135</v>
       </c>
       <c r="S4">
-        <v>0.0001918459042070709</v>
+        <v>0.00299235760505175</v>
       </c>
       <c r="T4">
-        <v>0.000191845904207071</v>
+        <v>0.00299235760505175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>22.726216</v>
       </c>
       <c r="I5">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="J5">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N5">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q5">
-        <v>944.8240825682826</v>
+        <v>693.2352229070231</v>
       </c>
       <c r="R5">
-        <v>8503.416743114543</v>
+        <v>6239.117006163208</v>
       </c>
       <c r="S5">
-        <v>0.8487035639301795</v>
+        <v>0.7643142606607818</v>
       </c>
       <c r="T5">
-        <v>0.8487035639301795</v>
+        <v>0.7643142606607819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>22.726216</v>
       </c>
       <c r="I6">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="J6">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.404136</v>
       </c>
       <c r="O6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q6">
         <v>1.020498003264</v>
@@ -818,10 +818,10 @@
         <v>9.184482029375999</v>
       </c>
       <c r="S6">
-        <v>0.0009166788911640549</v>
+        <v>0.00112513206354366</v>
       </c>
       <c r="T6">
-        <v>0.0009166788911640549</v>
+        <v>0.00112513206354366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>22.726216</v>
       </c>
       <c r="I7">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="J7">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N7">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q7">
         <v>21.48823063475111</v>
@@ -880,10 +880,10 @@
         <v>193.39407571276</v>
       </c>
       <c r="S7">
-        <v>0.01930215185952241</v>
+        <v>0.02369146945770659</v>
       </c>
       <c r="T7">
-        <v>0.01930215185952242</v>
+        <v>0.02369146945770659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>3.202389</v>
       </c>
       <c r="I8">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="J8">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N8">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q8">
-        <v>133.136737279614</v>
+        <v>97.684931457573</v>
       </c>
       <c r="R8">
-        <v>1198.230635516526</v>
+        <v>879.164383118157</v>
       </c>
       <c r="S8">
-        <v>0.1195922346857393</v>
+        <v>0.107700797215129</v>
       </c>
       <c r="T8">
-        <v>0.1195922346857393</v>
+        <v>0.107700797215129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>3.202389</v>
       </c>
       <c r="I9">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="J9">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.404136</v>
       </c>
       <c r="O9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q9">
         <v>0.143800075656</v>
@@ -1004,10 +1004,10 @@
         <v>1.294200680904</v>
       </c>
       <c r="S9">
-        <v>0.0001291707514174804</v>
+        <v>0.0001585442356017174</v>
       </c>
       <c r="T9">
-        <v>0.0001291707514174804</v>
+        <v>0.0001585442356017174</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>3.202389</v>
       </c>
       <c r="I10">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="J10">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N10">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q10">
-        <v>3.027942417435001</v>
+        <v>3.027942417435</v>
       </c>
       <c r="R10">
-        <v>27.25148175691501</v>
+        <v>27.251481756915</v>
       </c>
       <c r="S10">
-        <v>0.002719898411212149</v>
+        <v>0.003338404474603055</v>
       </c>
       <c r="T10">
-        <v>0.002719898411212149</v>
+        <v>0.003338404474603055</v>
       </c>
     </row>
   </sheetData>
